--- a/Torque Calculations.xlsx
+++ b/Torque Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deli\OneDrive - Eastside Preparatory School\FTC\8103-power-play\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDF120-1E0E-4C33-86B4-9B06E09450AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745313B7-CE04-4448-B1B6-259578F42FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{0D04A8BF-92C0-4572-8E9A-212B8C5F260D}"/>
+    <workbookView xWindow="-28920" yWindow="-270" windowWidth="29040" windowHeight="17640" xr2:uid="{0D04A8BF-92C0-4572-8E9A-212B8C5F260D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,7 +517,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>96</v>
       </c>
       <c r="F2">
-        <f>B2*E2</f>
+        <f t="shared" ref="F2:F7" si="0">B2*E2</f>
         <v>576</v>
       </c>
       <c r="H2">
@@ -593,11 +593,11 @@
         <v>1.7381571947350152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f>J2*K2</f>
-        <v>1.7381571947350152</v>
+        <v>3.4763143894700304</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>60.620351957448314</v>
       </c>
       <c r="F3">
-        <f>B3*E3</f>
+        <f t="shared" si="0"/>
         <v>242.48140782979326</v>
       </c>
     </row>
@@ -633,7 +633,7 @@
         <v>3.3</v>
       </c>
       <c r="F4">
-        <f>B4*E4</f>
+        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
         <v>58.822668163081268</v>
       </c>
       <c r="F5">
-        <f>B5*E5</f>
+        <f t="shared" si="0"/>
         <v>117.64533632616254</v>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>69</v>
       </c>
       <c r="F6">
-        <f>B6*E6</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>64</v>
       </c>
       <c r="F7">
-        <f>B7*E7</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>7.8</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F34" si="0">B8*E8</f>
+        <f t="shared" ref="F8:F34" si="1">B8*E8</f>
         <v>31.2</v>
       </c>
     </row>
@@ -722,7 +722,7 @@
         <v>55.714527826700852</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.4290556534017</v>
       </c>
     </row>
@@ -737,7 +737,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -752,7 +752,7 @@
         <v>3.5</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>3.4</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
     </row>
@@ -797,7 +797,7 @@
         <v>7.3</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>13.312833013846925</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.312833013846925</v>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>8.5242809559051906</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.048561911810381</v>
       </c>
     </row>
@@ -856,7 +856,7 @@
         <v>5.4</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.200000000000003</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         <v>62</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>8.5</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
@@ -946,7 +946,7 @@
         <v>1.9</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
     </row>
@@ -961,7 +961,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1399999999999999</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
         <v>0.16</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
         <v>0.32</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64</v>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
         <v>1.3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>1.5</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         <v>2.4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
     </row>
@@ -1066,25 +1066,25 @@
         <v>0.78</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Torque Calculations.xlsx
+++ b/Torque Calculations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deli\OneDrive - Eastside Preparatory School\FTC\8103-power-play\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eastsidepreparatory-my.sharepoint.com/personal/deli_eastsideprep_org/Documents/FTC/8103-power-play/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745313B7-CE04-4448-B1B6-259578F42FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{745313B7-CE04-4448-B1B6-259578F42FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{45726684-F998-4989-A518-32C6DD1F05F1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-270" windowWidth="29040" windowHeight="17640" xr2:uid="{0D04A8BF-92C0-4572-8E9A-212B8C5F260D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D04A8BF-92C0-4572-8E9A-212B8C5F260D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Part</t>
   </si>
@@ -163,6 +164,36 @@
   </si>
   <si>
     <t>Spool Diameter (mm)</t>
+  </si>
+  <si>
+    <t>mass per slide</t>
+  </si>
+  <si>
+    <t>Mass of inserts, screws, etc.</t>
+  </si>
+  <si>
+    <t>total mass</t>
+  </si>
+  <si>
+    <t># of slides</t>
+  </si>
+  <si>
+    <t>total mass for 1 slide</t>
+  </si>
+  <si>
+    <t>misumi</t>
+  </si>
+  <si>
+    <t>stroke per slide</t>
+  </si>
+  <si>
+    <t>total stroke</t>
+  </si>
+  <si>
+    <t>mgn9</t>
+  </si>
+  <si>
+    <t>length</t>
   </si>
 </sst>
 </file>
@@ -516,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9485C474-F567-468A-9CF6-67E9642E6137}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1109,4 +1140,117 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B106A36-4FF8-4DAC-A270-A24F2D5EEB24}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>176</v>
+      </c>
+      <c r="E2">
+        <f>C2+D2</f>
+        <v>176</v>
+      </c>
+      <c r="F2">
+        <v>345</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>1035</v>
+      </c>
+      <c r="I2">
+        <f>E2*G2</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>350</v>
+      </c>
+      <c r="C3">
+        <f>0.38*B3</f>
+        <v>133</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <f>C3+D3</f>
+        <v>149</v>
+      </c>
+      <c r="F3">
+        <f>350-57.8</f>
+        <v>292.2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <f>F3*G3</f>
+        <v>876.59999999999991</v>
+      </c>
+      <c r="I3">
+        <f>E3*G3</f>
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>